--- a/WSC/Test Report/SLCM/WSC SLCM_Scholarships.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Scholarships.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Scholarship" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="166">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -57,9 +57,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@test.com,  PW: erp@123
+Student: student@test.com, PW: erp@123</t>
   </si>
   <si>
     <t>Scholarship Company</t>
@@ -377,6 +377,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have all the following accesses:
 </t>
     </r>
@@ -638,6 +645,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Login as </t>
     </r>
     <r>
@@ -688,6 +702,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The user  have all the following accesses:
 </t>
     </r>
@@ -1491,7 +1512,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1516,9 +1537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1558,6 +1576,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1585,49 +1606,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
@@ -1648,10 +1645,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1665,6 +1686,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2214,8 +2238,8 @@
   <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2231,13 +2255,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2247,18 +2271,18 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -2269,154 +2293,154 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="90" spans="1:6">
-      <c r="A7" s="12">
+      <c r="D6" s="1"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="75" spans="1:6">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="12">
+      <c r="D7" s="1"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>3</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="3:6">
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="39">
+      <c r="A15" s="33">
         <v>2</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
-      <c r="A16" s="39">
+      <c r="A16" s="33">
         <v>3</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
-      <c r="A17" s="39">
+      <c r="A17" s="33">
         <v>4</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
-      <c r="A18" s="39">
+      <c r="A18" s="33">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
-      <c r="A19" s="39">
+      <c r="A19" s="33">
         <v>6</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
-      <c r="A20" s="39">
+      <c r="A20" s="33">
         <v>7</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2425,72 +2449,74 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="6:6">
-      <c r="F22" s="34"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="42">
+    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A24" s="35">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="46">
+      <c r="E24" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="38">
         <v>2</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="48">
+      <c r="E25" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:7">
+      <c r="A26" s="40">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2499,14 +2525,15 @@
       <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A27" s="49"/>
-      <c r="B27" s="17" t="s">
+      <c r="E26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
+      <c r="A27" s="41"/>
+      <c r="B27" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="22" t="s">
@@ -2515,13 +2542,14 @@
       <c r="D27" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="48">
+      <c r="E27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="40">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2533,15 +2561,16 @@
       <c r="D28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="22">
         <v>301</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="49"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A29" s="41"/>
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
@@ -2551,13 +2580,14 @@
       <c r="D29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="45"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="48">
+      <c r="E29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A30" s="40">
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2569,14 +2599,15 @@
       <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="45"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="49"/>
-      <c r="B31" s="44" t="s">
+      <c r="E30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="37"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A31" s="41"/>
+      <c r="B31" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -2585,13 +2616,14 @@
       <c r="D31" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="49">
+      <c r="E31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="37"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A32" s="41">
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2603,16 +2635,17 @@
       <c r="D32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="48">
+      <c r="E32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A33" s="40">
         <v>7</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="42" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2621,74 +2654,80 @@
       <c r="D33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="45"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="51"/>
+      <c r="E33" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="37"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:7">
+      <c r="A34" s="43"/>
       <c r="B34" s="44"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="43"/>
+      <c r="B35" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A37" s="51">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:7">
+      <c r="A36" s="43"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A37" s="43">
         <v>7</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:6">
+      <c r="F37" s="23"/>
+      <c r="G37" s="37"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:7">
       <c r="A38" s="54">
         <v>8</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="45"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="F38" s="23"/>
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:7">
       <c r="A39" s="55">
         <v>9</v>
       </c>
@@ -2698,15 +2737,16 @@
       <c r="C39" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="F39" s="23"/>
+      <c r="G39" s="37"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A40" s="55">
         <v>10</v>
       </c>
@@ -2719,12 +2759,13 @@
       <c r="D40" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="E40" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A41" s="55">
         <v>11</v>
       </c>
@@ -2737,12 +2778,13 @@
       <c r="D41" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="E41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A42" s="56">
         <v>12</v>
       </c>
@@ -2755,12 +2797,13 @@
       <c r="D42" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="45"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="E42" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="37"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A43" s="56">
         <v>13</v>
       </c>
@@ -2773,12 +2816,13 @@
       <c r="D43" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="45"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="E43" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="37"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A44" s="57"/>
       <c r="B44" s="22" t="s">
         <v>81</v>
@@ -2789,12 +2833,13 @@
       <c r="D44" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="45"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="E44" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="37"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A45" s="56">
         <v>14</v>
       </c>
@@ -2807,12 +2852,13 @@
       <c r="D45" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="45"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="E45" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A46" s="57"/>
       <c r="B46" s="22" t="s">
         <v>83</v>
@@ -2823,12 +2869,13 @@
       <c r="D46" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="45"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
+      <c r="E46" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:7">
       <c r="A47" s="56">
         <v>15</v>
       </c>
@@ -2841,44 +2888,46 @@
       <c r="D47" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="45"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="E47" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="37"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:7">
       <c r="A48" s="55"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="45"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:7">
       <c r="A49" s="55"/>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="45"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:7">
       <c r="A50" s="55"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:6">
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:7">
       <c r="A51" s="55">
         <v>16</v>
       </c>
@@ -2891,12 +2940,13 @@
       <c r="D51" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="45"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="E51" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="37"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A52" s="55">
         <v>17</v>
       </c>
@@ -2909,12 +2959,13 @@
       <c r="D52" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="45"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="E52" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="37"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A53" s="55">
         <v>18</v>
       </c>
@@ -2927,30 +2978,32 @@
       <c r="D53" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:6">
+      <c r="E53" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="37"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:7">
       <c r="A54" s="55"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="58"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:5">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A56" s="61">
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A56" s="62">
         <v>19</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -2962,10 +3015,11 @@
       <c r="D56" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="20"/>
+      <c r="E56" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="37"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:5">
       <c r="A57" s="2"/>
@@ -2982,8 +3036,10 @@
       <c r="E58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B49:G49"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -3001,8 +3057,8 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3048,9 +3104,9 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
@@ -3060,104 +3116,103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="75" spans="1:8">
-      <c r="A6" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:8">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:8">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="6:8">
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>101</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -3168,132 +3223,132 @@
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:9">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>1</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>104</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>104</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="30"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="30" spans="1:9">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>107</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="30"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="45" spans="1:9">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>3</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>110</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>110</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="30"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="45" spans="1:9">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>113</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="30"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:9">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>116</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="30"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>6</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -3317,7 +3372,7 @@
       <c r="H19" s="23"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>7</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -3341,7 +3396,7 @@
       <c r="H20" s="23"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>8</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -3365,7 +3420,7 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>9</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -3389,7 +3444,7 @@
       <c r="H22" s="23"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="135" spans="1:8">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>10</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -3413,7 +3468,7 @@
       <c r="H23" s="23"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="75" spans="1:8">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>11</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -3437,7 +3492,7 @@
       <c r="H24" s="23"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>12</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -3461,7 +3516,7 @@
       <c r="H25" s="23"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>13</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -3485,7 +3540,7 @@
       <c r="H26" s="23"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>14</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -3509,7 +3564,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>15</v>
       </c>
       <c r="B28" s="22" t="s">
@@ -3533,7 +3588,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>16</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -3557,7 +3612,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>17</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -3581,7 +3636,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>18</v>
       </c>
       <c r="B31" s="22" t="s">
@@ -3605,7 +3660,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>19</v>
       </c>
       <c r="B32" s="22" t="s">
@@ -3629,7 +3684,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>20</v>
       </c>
       <c r="B33" s="22" t="s">
